--- a/biology/Zoologie/Hottentotta_minusalta/Hottentotta_minusalta.xlsx
+++ b/biology/Zoologie/Hottentotta_minusalta/Hottentotta_minusalta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta minusalta est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afghanistan[1]. Elle se rencontre vers Lashkari Bazar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afghanistan. Elle se rencontre vers Lashkari Bazar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthotus alticola minusalta par Vachon en 1959. Elle suit son espèce dans le genre Hottentotta en 1989[2]. Elle est élevée au rang d'espèce par Kovařík en 2013[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthotus alticola minusalta par Vachon en 1959. Elle suit son espèce dans le genre Hottentotta en 1989. Elle est élevée au rang d'espèce par Kovařík en 2013.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vachon, 1959 : « Scorpionidea (Chelicerata) de l'Afghanistan. The 3rd Danish Expedition to Central Asia. (Zoological Results 23). » Videnskabelige Meddelelser fra Dansk Naturhistorisk Forening, vol. 120, p. 121-187.</t>
         </is>
